--- a/z其它资料/NB测试终端-预付费用记录.xlsx
+++ b/z其它资料/NB测试终端-预付费用记录.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A85ED2E4-3DE5-4549-B828-958284BCAED1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>NB测试终端-预付费用记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有人蓝牙模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>61.00 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,13 +107,21 @@
   </si>
   <si>
     <t>按键、按键帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人蓝牙模块 * 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,11 +510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -542,65 +547,65 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3">
         <v>69.599999999999994</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>188</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>390</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>47.6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -611,90 +616,96 @@
         <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>8.8000000000000007</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>39.6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" s="3">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3">
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>61.8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -740,7 +751,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="3">
         <f>SUM(B3:B25)</f>
-        <v>1015.6</v>
+        <v>1077.4000000000001</v>
       </c>
       <c r="C26" s="3"/>
     </row>

--- a/z其它资料/NB测试终端-预付费用记录.xlsx
+++ b/z其它资料/NB测试终端-预付费用记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A85ED2E4-3DE5-4549-B828-958284BCAED1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5035071F-AAB4-46AF-BDCC-8572947C4CAD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>NB测试终端-预付费用记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,30 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST6600*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH340E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打板费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易夹具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,29 +732,59 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3">
+        <v>164</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -749,11 +803,21 @@
     </row>
     <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="3">
-        <f>SUM(B3:B25)</f>
-        <v>1077.4000000000001</v>
-      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3">
+        <f>SUM(B3:B27)</f>
+        <v>1346.7</v>
+      </c>
+      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/z其它资料/NB测试终端-预付费用记录.xlsx
+++ b/z其它资料/NB测试终端-预付费用记录.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5035071F-AAB4-46AF-BDCC-8572947C4CAD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C666014-6FA5-45EA-855E-8E591F77904E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>NB测试终端-预付费用记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人蓝牙模块 * 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子元器件（两路自购）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（黄力伟）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,14 +799,24 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3">
+        <v>146.5</v>
+      </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3">
+        <v>200</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
@@ -813,11 +835,21 @@
     </row>
     <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="3">
-        <f>SUM(B3:B27)</f>
-        <v>1346.7</v>
-      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3">
+        <f>SUM(B3:B29)</f>
+        <v>1693.2</v>
+      </c>
+      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/z其它资料/NB测试终端-预付费用记录.xlsx
+++ b/z其它资料/NB测试终端-预付费用记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C666014-6FA5-45EA-855E-8E591F77904E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A3661B98-4FC0-4BAC-BD02-588224F211D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>NB测试终端-预付费用记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,30 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是（990）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是（75）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是（39）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MICRO SIM卡座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按键、按键帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,18 +94,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ST6600*3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CH340E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,7 +122,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（黄力伟）</t>
+    <t>PCB打板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰盛康-天线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM8L开发板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RK3328</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,20 +573,16 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>69.599999999999994</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -607,249 +591,295 @@
       <c r="B5" s="4">
         <v>75</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
+      <c r="C5" s="3">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <v>144</v>
+      </c>
+      <c r="C6" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>188</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>390</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>47.6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>50</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>52</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>39.6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>39.6</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
         <v>27</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3">
-        <v>61.8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>61.8</v>
+      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>28.5</v>
+      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>164</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>17.8</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>146.5</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3">
+        <v>146.5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>146.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
         <v>200</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>426</v>
+      </c>
+      <c r="C26" s="3">
+        <v>426</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>270</v>
+      </c>
+      <c r="C27" s="3">
+        <v>270</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>37</v>
+      </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>296.72000000000003</v>
+      </c>
+      <c r="C29" s="3">
+        <v>296.72000000000003</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B30" s="3">
-        <f>SUM(B3:B29)</f>
-        <v>1693.2</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="C30" s="3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3">
+        <v>294</v>
+      </c>
+      <c r="C31" s="3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3">
+        <f>SUM(B3:B36)</f>
+        <v>3324.92</v>
+      </c>
+      <c r="C37" s="3">
+        <f>SUM(C3:C36)</f>
+        <v>2806.2200000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/z其它资料/NB测试终端-预付费用记录.xlsx
+++ b/z其它资料/NB测试终端-预付费用记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A3661B98-4FC0-4BAC-BD02-588224F211D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83AF7BEA-CFB6-4737-A357-378FB80AA8C8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>NB测试终端-预付费用记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>RK3328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST开关芯片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +542,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,8 +850,12 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>75.8</v>
+      </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -874,7 +882,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="3">
         <f>SUM(B3:B36)</f>
-        <v>3324.92</v>
+        <v>3400.7200000000003</v>
       </c>
       <c r="C37" s="3">
         <f>SUM(C3:C36)</f>

--- a/z其它资料/NB测试终端-预付费用记录.xlsx
+++ b/z其它资料/NB测试终端-预付费用记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83AF7BEA-CFB6-4737-A357-378FB80AA8C8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F5EAB70-BA49-4863-B714-6A509ADD8AFD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>NB测试终端-预付费用记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>ST开关芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊接夹具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +546,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -859,8 +863,12 @@
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>68</v>
+      </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -882,7 +890,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="3">
         <f>SUM(B3:B36)</f>
-        <v>3400.7200000000003</v>
+        <v>3468.7200000000003</v>
       </c>
       <c r="C37" s="3">
         <f>SUM(C3:C36)</f>

--- a/z其它资料/NB测试终端-预付费用记录.xlsx
+++ b/z其它资料/NB测试终端-预付费用记录.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F5EAB70-BA49-4863-B714-6A509ADD8AFD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D9D936D2-6E73-4ACD-9F15-D455BA98FE5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>NB测试终端-预付费用记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>焊接夹具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST-LINK * 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +550,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,8 +876,12 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>40</v>
+      </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -890,7 +898,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="3">
         <f>SUM(B3:B36)</f>
-        <v>3468.7200000000003</v>
+        <v>3508.7200000000003</v>
       </c>
       <c r="C37" s="3">
         <f>SUM(C3:C36)</f>
